--- a/Code/Results/Cases/Case_9_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.097287194610118</v>
+        <v>1.046567387382169</v>
       </c>
       <c r="C2">
-        <v>0.1796799631638883</v>
+        <v>0.1640016837458518</v>
       </c>
       <c r="D2">
-        <v>0.07985963281324615</v>
+        <v>0.08249808897988942</v>
       </c>
       <c r="E2">
-        <v>0.1003766476812871</v>
+        <v>0.094521341930907</v>
       </c>
       <c r="F2">
-        <v>0.4560873627237143</v>
+        <v>0.4285780315140997</v>
       </c>
       <c r="G2">
-        <v>0.3564786227289503</v>
+        <v>0.3117646795539954</v>
       </c>
       <c r="H2">
-        <v>0.001107238522026321</v>
+        <v>0.0007763646692977577</v>
       </c>
       <c r="I2">
-        <v>0.002212125714368796</v>
+        <v>0.001641658572875571</v>
       </c>
       <c r="J2">
-        <v>0.3175365231682861</v>
+        <v>0.3321936986680001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1716312571089489</v>
       </c>
       <c r="M2">
-        <v>0.8644622169229592</v>
+        <v>0.09856688595056973</v>
       </c>
       <c r="N2">
-        <v>0.2617314328259965</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8679907083523517</v>
       </c>
       <c r="P2">
-        <v>0.8472201580100656</v>
+        <v>0.2700725834164359</v>
       </c>
       <c r="Q2">
-        <v>1.368163945344861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8277573993775214</v>
+      </c>
+      <c r="S2">
+        <v>1.274899564842357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9567362281215139</v>
+        <v>0.9160378260995401</v>
       </c>
       <c r="C3">
-        <v>0.1755203977579676</v>
+        <v>0.1577477336499236</v>
       </c>
       <c r="D3">
-        <v>0.07147153964164232</v>
+        <v>0.07330558532174791</v>
       </c>
       <c r="E3">
-        <v>0.09264819618296727</v>
+        <v>0.08774258556526959</v>
       </c>
       <c r="F3">
-        <v>0.4349228344637481</v>
+        <v>0.4106143828002757</v>
       </c>
       <c r="G3">
-        <v>0.3440223555230801</v>
+        <v>0.303108617152958</v>
       </c>
       <c r="H3">
-        <v>0.001964958191989274</v>
+        <v>0.001458190914563007</v>
       </c>
       <c r="I3">
-        <v>0.003217245653892586</v>
+        <v>0.002350447738884487</v>
       </c>
       <c r="J3">
-        <v>0.3153767971985388</v>
+        <v>0.3292144698232775</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1756000676829466</v>
       </c>
       <c r="M3">
-        <v>0.7555500302607925</v>
+        <v>0.09564743534124531</v>
       </c>
       <c r="N3">
-        <v>0.2306978609001504</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7589398934092628</v>
       </c>
       <c r="P3">
-        <v>0.8726964976741503</v>
+        <v>0.2382750622029874</v>
       </c>
       <c r="Q3">
-        <v>1.336981423960623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8501244994178432</v>
+      </c>
+      <c r="S3">
+        <v>1.252715115547772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.87003041916293</v>
+        <v>0.8352976025150838</v>
       </c>
       <c r="C4">
-        <v>0.172930535933574</v>
+        <v>0.1539264606171358</v>
       </c>
       <c r="D4">
-        <v>0.06631723674892953</v>
+        <v>0.06766991897510621</v>
       </c>
       <c r="E4">
-        <v>0.08785846632065031</v>
+        <v>0.0835263619540747</v>
       </c>
       <c r="F4">
-        <v>0.4222875494287308</v>
+        <v>0.3998578455445809</v>
       </c>
       <c r="G4">
-        <v>0.3366509372866417</v>
+        <v>0.2980689030985175</v>
       </c>
       <c r="H4">
-        <v>0.002639904262392245</v>
+        <v>0.00200484590873562</v>
       </c>
       <c r="I4">
-        <v>0.004008666907863834</v>
+        <v>0.002934107136297825</v>
       </c>
       <c r="J4">
-        <v>0.3142548928418591</v>
+        <v>0.327445437214493</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1780928262975188</v>
       </c>
       <c r="M4">
-        <v>0.6885425208708256</v>
+        <v>0.09438112928900821</v>
       </c>
       <c r="N4">
-        <v>0.2116556189826468</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6918283000708101</v>
       </c>
       <c r="P4">
-        <v>0.8888967406731254</v>
+        <v>0.2187775760160662</v>
       </c>
       <c r="Q4">
-        <v>1.318842407094635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.864447928693437</v>
+      </c>
+      <c r="S4">
+        <v>1.239837688507194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.833818239560884</v>
+        <v>0.8014873184653766</v>
       </c>
       <c r="C5">
-        <v>0.1719266853807007</v>
+        <v>0.1524696565291777</v>
       </c>
       <c r="D5">
-        <v>0.06426611724265996</v>
+        <v>0.06542705458684139</v>
       </c>
       <c r="E5">
-        <v>0.08582158965299769</v>
+        <v>0.08172327601662843</v>
       </c>
       <c r="F5">
-        <v>0.4168960009108105</v>
+        <v>0.3952205622284097</v>
       </c>
       <c r="G5">
-        <v>0.3333896311252076</v>
+        <v>0.2957747718412662</v>
       </c>
       <c r="H5">
-        <v>0.002952925166742726</v>
+        <v>0.002260374292075817</v>
       </c>
       <c r="I5">
-        <v>0.004450180771564671</v>
+        <v>0.003296787822462122</v>
       </c>
       <c r="J5">
-        <v>0.3136799250869799</v>
+        <v>0.3265702606655623</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1789646235806295</v>
       </c>
       <c r="M5">
-        <v>0.6612213814746468</v>
+        <v>0.09391845838235113</v>
       </c>
       <c r="N5">
-        <v>0.2039666818406261</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6644610616354498</v>
       </c>
       <c r="P5">
-        <v>0.89562180206687</v>
+        <v>0.2109071013085781</v>
       </c>
       <c r="Q5">
-        <v>1.310656293106405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8704464999190176</v>
+      </c>
+      <c r="S5">
+        <v>1.23377226777211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8268500201515963</v>
+        <v>0.7949361361212084</v>
       </c>
       <c r="C6">
-        <v>0.1718359758899624</v>
+        <v>0.1523482873484987</v>
       </c>
       <c r="D6">
-        <v>0.06398773344466235</v>
+        <v>0.06511860466299879</v>
       </c>
       <c r="E6">
-        <v>0.08539262837146921</v>
+        <v>0.08133598515184559</v>
       </c>
       <c r="F6">
-        <v>0.4156032727828034</v>
+        <v>0.3940640161985982</v>
       </c>
       <c r="G6">
-        <v>0.3324560662330072</v>
+        <v>0.2950236141619555</v>
       </c>
       <c r="H6">
-        <v>0.00300965547299048</v>
+        <v>0.002306884111702434</v>
       </c>
       <c r="I6">
-        <v>0.00462713848471985</v>
+        <v>0.003476549193001333</v>
       </c>
       <c r="J6">
-        <v>0.3133822524356518</v>
+        <v>0.3262192393635175</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.178917875014001</v>
       </c>
       <c r="M6">
-        <v>0.6567095544105399</v>
+        <v>0.09375302303566357</v>
       </c>
       <c r="N6">
-        <v>0.2027750027538247</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6599418178900294</v>
       </c>
       <c r="P6">
-        <v>0.8967315127619653</v>
+        <v>0.2096859283883958</v>
       </c>
       <c r="Q6">
-        <v>1.308042138217999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8714732828913565</v>
+      </c>
+      <c r="S6">
+        <v>1.231557250785954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8669421281207406</v>
+        <v>0.8318055672231424</v>
       </c>
       <c r="C7">
-        <v>0.1731280744262911</v>
+        <v>0.1541606780667024</v>
       </c>
       <c r="D7">
-        <v>0.06646038848428759</v>
+        <v>0.06792400910941154</v>
       </c>
       <c r="E7">
-        <v>0.08758499544819998</v>
+        <v>0.08328428466934312</v>
       </c>
       <c r="F7">
-        <v>0.4211149658967699</v>
+        <v>0.3980885737693995</v>
       </c>
       <c r="G7">
-        <v>0.3355254869935251</v>
+        <v>0.2993937565343572</v>
       </c>
       <c r="H7">
-        <v>0.002650535059646408</v>
+        <v>0.002016169589752592</v>
       </c>
       <c r="I7">
-        <v>0.004274807852475249</v>
+        <v>0.003244792014871933</v>
       </c>
       <c r="J7">
-        <v>0.3136875016110636</v>
+        <v>0.3233652798988658</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1774123518982904</v>
       </c>
       <c r="M7">
-        <v>0.6882483137740536</v>
+        <v>0.09400003801979295</v>
       </c>
       <c r="N7">
-        <v>0.2117848320754234</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6909056685338015</v>
       </c>
       <c r="P7">
-        <v>0.8889576653841331</v>
+        <v>0.2188611247867414</v>
       </c>
       <c r="Q7">
-        <v>1.315266808451312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8646522877838176</v>
+      </c>
+      <c r="S7">
+        <v>1.234448258080036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.045434153884884</v>
+        <v>0.9966377236991946</v>
       </c>
       <c r="C8">
-        <v>0.178545057782447</v>
+        <v>0.1620444019163259</v>
       </c>
       <c r="D8">
-        <v>0.07719677021572835</v>
+        <v>0.07993029358716797</v>
       </c>
       <c r="E8">
-        <v>0.09739514171274166</v>
+        <v>0.0919502973252726</v>
       </c>
       <c r="F8">
-        <v>0.4472589067065655</v>
+        <v>0.4187981460831907</v>
       </c>
       <c r="G8">
-        <v>0.3506962153953523</v>
+        <v>0.3153405033700523</v>
       </c>
       <c r="H8">
-        <v>0.001377191160048197</v>
+        <v>0.000994227781611956</v>
       </c>
       <c r="I8">
-        <v>0.002834332691037389</v>
+        <v>0.002228412115747425</v>
       </c>
       <c r="J8">
-        <v>0.3160130845197955</v>
+        <v>0.319034080216035</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1718334269803918</v>
       </c>
       <c r="M8">
-        <v>0.8270326889619071</v>
+        <v>0.09666367303001699</v>
       </c>
       <c r="N8">
-        <v>0.2513388733342339</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8284090083630247</v>
       </c>
       <c r="P8">
-        <v>0.8559032707260084</v>
+        <v>0.2592681554855716</v>
       </c>
       <c r="Q8">
-        <v>1.352628872681819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8357605081657624</v>
+      </c>
+      <c r="S8">
+        <v>1.256183978784861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.397014157049938</v>
+        <v>1.321564833883485</v>
       </c>
       <c r="C9">
-        <v>0.1885255072432734</v>
+        <v>0.1773515414978206</v>
       </c>
       <c r="D9">
-        <v>0.09793454972887616</v>
+        <v>0.1028527155821095</v>
       </c>
       <c r="E9">
-        <v>0.1167322697320401</v>
+        <v>0.1088742520320949</v>
       </c>
       <c r="F9">
-        <v>0.5035331838160175</v>
+        <v>0.4659581105647348</v>
       </c>
       <c r="G9">
-        <v>0.3847215943064413</v>
+        <v>0.342033338158906</v>
       </c>
       <c r="H9">
-        <v>0.000118746328741981</v>
+        <v>5.004484773785123E-05</v>
       </c>
       <c r="I9">
-        <v>0.001070874901345498</v>
+        <v>0.0009961454721949536</v>
       </c>
       <c r="J9">
-        <v>0.3232483728613289</v>
+        <v>0.324384774667422</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1628093078847286</v>
       </c>
       <c r="M9">
-        <v>1.09815555528948</v>
+        <v>0.1070105135850739</v>
       </c>
       <c r="N9">
-        <v>0.3286594351710335</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.099115457707029</v>
       </c>
       <c r="P9">
-        <v>0.7956123928127994</v>
+        <v>0.3385216489175207</v>
       </c>
       <c r="Q9">
-        <v>1.440505738377681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7834928825008802</v>
+      </c>
+      <c r="S9">
+        <v>1.3181615503659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.640977891999086</v>
+        <v>1.543434752985206</v>
       </c>
       <c r="C10">
-        <v>0.1968221141402253</v>
+        <v>0.1898802286002095</v>
       </c>
       <c r="D10">
-        <v>0.1141907143339864</v>
+        <v>0.1214202169599332</v>
       </c>
       <c r="E10">
-        <v>0.125045678835761</v>
+        <v>0.1158460566450934</v>
       </c>
       <c r="F10">
-        <v>0.5410913662490913</v>
+        <v>0.4933579207376297</v>
       </c>
       <c r="G10">
-        <v>0.405594514804676</v>
+        <v>0.3726092484023553</v>
       </c>
       <c r="H10">
-        <v>0.000221981302894747</v>
+        <v>0.0002577277486754959</v>
       </c>
       <c r="I10">
-        <v>0.0008999054674019291</v>
+        <v>0.001082608247902961</v>
       </c>
       <c r="J10">
-        <v>0.3267628885557627</v>
+        <v>0.307643391175084</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1541877390689628</v>
       </c>
       <c r="M10">
-        <v>1.296107083984225</v>
+        <v>0.1146129622538368</v>
       </c>
       <c r="N10">
-        <v>0.3685881540784521</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.292767664036091</v>
       </c>
       <c r="P10">
-        <v>0.755095156040781</v>
+        <v>0.3793321745602753</v>
       </c>
       <c r="Q10">
-        <v>1.492515196463671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7505427090421399</v>
+      </c>
+      <c r="S10">
+        <v>1.34095607985337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.649345032750574</v>
+        <v>1.549232287519231</v>
       </c>
       <c r="C11">
-        <v>0.2121140099871752</v>
+        <v>0.209598606262837</v>
       </c>
       <c r="D11">
-        <v>0.1300879035144646</v>
+        <v>0.1393294633875257</v>
       </c>
       <c r="E11">
-        <v>0.08673841584356978</v>
+        <v>0.07996141936627055</v>
       </c>
       <c r="F11">
-        <v>0.5107594164679696</v>
+        <v>0.4584926693035314</v>
       </c>
       <c r="G11">
-        <v>0.3692903981308433</v>
+        <v>0.3700592481232121</v>
       </c>
       <c r="H11">
-        <v>0.0187689954062833</v>
+        <v>0.01878962127868888</v>
       </c>
       <c r="I11">
-        <v>0.001430929694720362</v>
+        <v>0.001752288341328345</v>
       </c>
       <c r="J11">
-        <v>0.3052052147944124</v>
+        <v>0.2571895693371005</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1379575694753186</v>
       </c>
       <c r="M11">
-        <v>1.377545318914088</v>
+        <v>0.1032701216738374</v>
       </c>
       <c r="N11">
-        <v>0.2520670966618468</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.365306108068637</v>
       </c>
       <c r="P11">
-        <v>0.7485378410331585</v>
+        <v>0.2601528199273986</v>
       </c>
       <c r="Q11">
-        <v>1.370568561248348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.755695736823192</v>
+      </c>
+      <c r="S11">
+        <v>1.209507326122591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.608406774306303</v>
+        <v>1.512674676602984</v>
       </c>
       <c r="C12">
-        <v>0.2264201557281424</v>
+        <v>0.2259859226914074</v>
       </c>
       <c r="D12">
-        <v>0.1402955674180788</v>
+        <v>0.1503254725158172</v>
       </c>
       <c r="E12">
-        <v>0.06199614639519524</v>
+        <v>0.05714986987268134</v>
       </c>
       <c r="F12">
-        <v>0.4791039911667028</v>
+        <v>0.4275855939382396</v>
       </c>
       <c r="G12">
-        <v>0.3368453192825172</v>
+        <v>0.3535071074197447</v>
       </c>
       <c r="H12">
-        <v>0.05742155282133865</v>
+        <v>0.05743090249526261</v>
       </c>
       <c r="I12">
-        <v>0.001431851636656489</v>
+        <v>0.001754306697353769</v>
       </c>
       <c r="J12">
-        <v>0.2874313604739527</v>
+        <v>0.2333928572347688</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1280762134435669</v>
       </c>
       <c r="M12">
-        <v>1.404222269375822</v>
+        <v>0.0934773109873781</v>
       </c>
       <c r="N12">
-        <v>0.1644448850126849</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.387665291529004</v>
       </c>
       <c r="P12">
-        <v>0.7564877398612886</v>
+        <v>0.1705131699156581</v>
       </c>
       <c r="Q12">
-        <v>1.264623135673688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7712294914618951</v>
+      </c>
+      <c r="S12">
+        <v>1.109189817491853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.523338973973438</v>
+        <v>1.43886283558686</v>
       </c>
       <c r="C13">
-        <v>0.2408848914420787</v>
+        <v>0.2415132395272508</v>
       </c>
       <c r="D13">
-        <v>0.1468808495505556</v>
+        <v>0.1563599565113236</v>
       </c>
       <c r="E13">
-        <v>0.04583308577913314</v>
+        <v>0.04266367798761017</v>
       </c>
       <c r="F13">
-        <v>0.4427962046998317</v>
+        <v>0.3973453218901781</v>
       </c>
       <c r="G13">
-        <v>0.3037439073493289</v>
+        <v>0.3180550159632531</v>
       </c>
       <c r="H13">
-        <v>0.1131512996143016</v>
+        <v>0.1131458135492949</v>
       </c>
       <c r="I13">
-        <v>0.001385973805469121</v>
+        <v>0.001682334349196957</v>
       </c>
       <c r="J13">
-        <v>0.2706091345433919</v>
+        <v>0.2268058755218014</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1213716534002192</v>
       </c>
       <c r="M13">
-        <v>1.390164801557432</v>
+        <v>0.08418746116602094</v>
       </c>
       <c r="N13">
-        <v>0.09461891741091222</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.374413615264103</v>
       </c>
       <c r="P13">
-        <v>0.7752658587333201</v>
+        <v>0.09904951735708067</v>
       </c>
       <c r="Q13">
-        <v>1.159201857084895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7931084741543373</v>
+      </c>
+      <c r="S13">
+        <v>1.02425371021323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.443530753586174</v>
+        <v>1.369803049778113</v>
       </c>
       <c r="C14">
-        <v>0.2515807559763203</v>
+        <v>0.2525040454676883</v>
       </c>
       <c r="D14">
-        <v>0.1499151025169425</v>
+        <v>0.1583746560112331</v>
       </c>
       <c r="E14">
-        <v>0.03960905178156882</v>
+        <v>0.0374859352815643</v>
       </c>
       <c r="F14">
-        <v>0.4152320630107198</v>
+        <v>0.376097570163715</v>
       </c>
       <c r="G14">
-        <v>0.2803247977864274</v>
+        <v>0.2861656128984507</v>
       </c>
       <c r="H14">
-        <v>0.1624923961411042</v>
+        <v>0.1624714229126738</v>
       </c>
       <c r="I14">
-        <v>0.00143086548826421</v>
+        <v>0.001707395376159049</v>
       </c>
       <c r="J14">
-        <v>0.2592545649178462</v>
+        <v>0.2282001883039655</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1178334727666623</v>
       </c>
       <c r="M14">
-        <v>1.361923405502495</v>
+        <v>0.0780085779621853</v>
       </c>
       <c r="N14">
-        <v>0.05679988089431731</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.348972504694331</v>
       </c>
       <c r="P14">
-        <v>0.7937825092963777</v>
+        <v>0.06024530876004519</v>
       </c>
       <c r="Q14">
-        <v>1.085726856895818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8112032837602499</v>
+      </c>
+      <c r="S14">
+        <v>0.9704914893219438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.413949429500548</v>
+        <v>1.344142676820354</v>
       </c>
       <c r="C15">
-        <v>0.2540205863509613</v>
+        <v>0.2549422505688455</v>
       </c>
       <c r="D15">
-        <v>0.1498829124511616</v>
+        <v>0.1578279604432282</v>
       </c>
       <c r="E15">
-        <v>0.03875149458990212</v>
+        <v>0.03687884618435333</v>
       </c>
       <c r="F15">
-        <v>0.4071792217672083</v>
+        <v>0.3704998411504334</v>
       </c>
       <c r="G15">
-        <v>0.2740668066356591</v>
+        <v>0.2751487007599209</v>
       </c>
       <c r="H15">
-        <v>0.1750013805508956</v>
+        <v>0.17497228860897</v>
       </c>
       <c r="I15">
-        <v>0.00155701944059139</v>
+        <v>0.001842222636674329</v>
       </c>
       <c r="J15">
-        <v>0.2564942938055168</v>
+        <v>0.2310912099663831</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1173175647591354</v>
       </c>
       <c r="M15">
-        <v>1.346413854108533</v>
+        <v>0.07647192711534956</v>
       </c>
       <c r="N15">
-        <v>0.04895625490650701</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.33509973172167</v>
       </c>
       <c r="P15">
-        <v>0.8000872048612706</v>
+        <v>0.05219349490710812</v>
       </c>
       <c r="Q15">
-        <v>1.066650199515607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8164019907782745</v>
+      </c>
+      <c r="S15">
+        <v>0.958648223837983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.326965711951999</v>
+        <v>1.268408899578731</v>
       </c>
       <c r="C16">
-        <v>0.2470865833826679</v>
+        <v>0.2470701214512303</v>
       </c>
       <c r="D16">
-        <v>0.1413822703179619</v>
+        <v>0.1471283282116502</v>
       </c>
       <c r="E16">
-        <v>0.03876494804913655</v>
+        <v>0.03696620180329813</v>
       </c>
       <c r="F16">
-        <v>0.3978754077965903</v>
+        <v>0.3689664960021304</v>
       </c>
       <c r="G16">
-        <v>0.2713410154806368</v>
+        <v>0.2504851803618848</v>
       </c>
       <c r="H16">
-        <v>0.1622695445582565</v>
+        <v>0.1621885348031498</v>
       </c>
       <c r="I16">
-        <v>0.001754163359104055</v>
+        <v>0.001972900246489218</v>
       </c>
       <c r="J16">
-        <v>0.2580184353845496</v>
+        <v>0.2562280668572328</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1212172809030427</v>
       </c>
       <c r="M16">
-        <v>1.264095701338704</v>
+        <v>0.07661353199259757</v>
       </c>
       <c r="N16">
-        <v>0.04812314842761012</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.26060608215306</v>
       </c>
       <c r="P16">
-        <v>0.811233923041236</v>
+        <v>0.05154280523743537</v>
       </c>
       <c r="Q16">
-        <v>1.063895106771298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8193473876790378</v>
+      </c>
+      <c r="S16">
+        <v>0.9767114301622399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.302268389103233</v>
+        <v>1.245994746024394</v>
       </c>
       <c r="C17">
-        <v>0.2359034482543763</v>
+        <v>0.2347879106727504</v>
       </c>
       <c r="D17">
-        <v>0.1332763116318603</v>
+        <v>0.138164847378107</v>
       </c>
       <c r="E17">
-        <v>0.04119912593830533</v>
+        <v>0.03890734228593029</v>
       </c>
       <c r="F17">
-        <v>0.4053380322360312</v>
+        <v>0.3784290629156857</v>
       </c>
       <c r="G17">
-        <v>0.2815671651803271</v>
+        <v>0.2507319524460812</v>
       </c>
       <c r="H17">
-        <v>0.1245007534432006</v>
+        <v>0.1243854725860132</v>
       </c>
       <c r="I17">
-        <v>0.001915649333129821</v>
+        <v>0.002093791983305948</v>
       </c>
       <c r="J17">
-        <v>0.265198689609349</v>
+        <v>0.2738744973773137</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1263692654462503</v>
       </c>
       <c r="M17">
-        <v>1.216088039342623</v>
+        <v>0.0796877429203473</v>
       </c>
       <c r="N17">
-        <v>0.06549028883888042</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.21599382373671</v>
       </c>
       <c r="P17">
-        <v>0.8100532722463569</v>
+        <v>0.06956573406134936</v>
       </c>
       <c r="Q17">
-        <v>1.100507764858278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8134995259451543</v>
+      </c>
+      <c r="S17">
+        <v>1.017618361489994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.330440512870098</v>
+        <v>1.270118169380282</v>
       </c>
       <c r="C18">
-        <v>0.2208687904851345</v>
+        <v>0.2182828821277241</v>
       </c>
       <c r="D18">
-        <v>0.124602906192834</v>
+        <v>0.1293352768336291</v>
       </c>
       <c r="E18">
-        <v>0.05048052189835417</v>
+        <v>0.04702495130836315</v>
       </c>
       <c r="F18">
-        <v>0.4290716734842235</v>
+        <v>0.4006618720732291</v>
       </c>
       <c r="G18">
-        <v>0.3054089981109058</v>
+        <v>0.2679272020605765</v>
       </c>
       <c r="H18">
-        <v>0.0716595249286982</v>
+        <v>0.07154034855809499</v>
       </c>
       <c r="I18">
-        <v>0.001722085597947398</v>
+        <v>0.001841194063445961</v>
       </c>
       <c r="J18">
-        <v>0.2786552880872506</v>
+        <v>0.2908689019384667</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.134024542098782</v>
       </c>
       <c r="M18">
-        <v>1.191915221721473</v>
+        <v>0.0862066211351582</v>
       </c>
       <c r="N18">
-        <v>0.1102215436958005</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.193359403458317</v>
       </c>
       <c r="P18">
-        <v>0.79995230267075</v>
+        <v>0.1155803747799524</v>
       </c>
       <c r="Q18">
-        <v>1.179176937877557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7999143907330364</v>
+      </c>
+      <c r="S18">
+        <v>1.090150210236331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.394833410504873</v>
+        <v>1.326103043455049</v>
       </c>
       <c r="C19">
-        <v>0.207355100906554</v>
+        <v>0.2029966601900668</v>
       </c>
       <c r="D19">
-        <v>0.1167358624444574</v>
+        <v>0.1217205467058307</v>
       </c>
       <c r="E19">
-        <v>0.07107630374106755</v>
+        <v>0.06581418250717874</v>
       </c>
       <c r="F19">
-        <v>0.4629371551208337</v>
+        <v>0.4307548885711299</v>
       </c>
       <c r="G19">
-        <v>0.3378846352019593</v>
+        <v>0.2949510323007658</v>
       </c>
       <c r="H19">
-        <v>0.02635267376496131</v>
+        <v>0.02626591670360057</v>
       </c>
       <c r="I19">
-        <v>0.00179279095643281</v>
+        <v>0.001957942518078681</v>
       </c>
       <c r="J19">
-        <v>0.2957477969618125</v>
+        <v>0.3073898679796869</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1431357288859569</v>
       </c>
       <c r="M19">
-        <v>1.188736646754961</v>
+        <v>0.09504900829451657</v>
       </c>
       <c r="N19">
-        <v>0.1889448094477189</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.190745291138597</v>
       </c>
       <c r="P19">
-        <v>0.7876932472741878</v>
+        <v>0.1961822490906258</v>
       </c>
       <c r="Q19">
-        <v>1.283807912503804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.784575463096445</v>
+      </c>
+      <c r="S19">
+        <v>1.181710460911759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.56826303628273</v>
+        <v>1.478765363420223</v>
       </c>
       <c r="C20">
-        <v>0.1954977270507854</v>
+        <v>0.1882741125814889</v>
       </c>
       <c r="D20">
-        <v>0.1105102935589173</v>
+        <v>0.1167305920075279</v>
       </c>
       <c r="E20">
-        <v>0.12188618628862</v>
+        <v>0.1130131448840466</v>
       </c>
       <c r="F20">
-        <v>0.5274470541528373</v>
+        <v>0.4848982728103337</v>
       </c>
       <c r="G20">
-        <v>0.3964464186808243</v>
+        <v>0.3522474169256924</v>
       </c>
       <c r="H20">
-        <v>0.0001199299521172925</v>
+        <v>0.0001362538810418812</v>
       </c>
       <c r="I20">
-        <v>0.001668655577716116</v>
+        <v>0.001952038863409555</v>
       </c>
       <c r="J20">
-        <v>0.3239486539199703</v>
+        <v>0.3217055025868945</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1556807673622629</v>
       </c>
       <c r="M20">
-        <v>1.244326587922984</v>
+        <v>0.1117197944259125</v>
       </c>
       <c r="N20">
-        <v>0.3581075767751116</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.24448435335799</v>
       </c>
       <c r="P20">
-        <v>0.7658885312531929</v>
+        <v>0.3687703456033944</v>
       </c>
       <c r="Q20">
-        <v>1.467124864712076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7593661523346178</v>
+      </c>
+      <c r="S20">
+        <v>1.331106172622256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.774005204191468</v>
+        <v>1.655141435865062</v>
       </c>
       <c r="C21">
-        <v>0.2002482237928191</v>
+        <v>0.1940255996827602</v>
       </c>
       <c r="D21">
-        <v>0.1215018556250982</v>
+        <v>0.1318145610620718</v>
       </c>
       <c r="E21">
-        <v>0.1369942510214948</v>
+        <v>0.1269755093534428</v>
       </c>
       <c r="F21">
-        <v>0.5660539674226897</v>
+        <v>0.5023378660929509</v>
       </c>
       <c r="G21">
-        <v>0.4218720272571232</v>
+        <v>0.4336481252745301</v>
       </c>
       <c r="H21">
-        <v>0.000249625074923765</v>
+        <v>0.0003001708689132077</v>
       </c>
       <c r="I21">
-        <v>0.001701086268763419</v>
+        <v>0.002093406465609959</v>
       </c>
       <c r="J21">
-        <v>0.3314910909579964</v>
+        <v>0.260468804988534</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1494431137956092</v>
       </c>
       <c r="M21">
-        <v>1.397679148781123</v>
+        <v>0.1181502378083863</v>
       </c>
       <c r="N21">
-        <v>0.4153341508928605</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.382021651781116</v>
       </c>
       <c r="P21">
-        <v>0.7347062398846624</v>
+        <v>0.4263380948318911</v>
       </c>
       <c r="Q21">
-        <v>1.537120942705826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7358186278832832</v>
+      </c>
+      <c r="S21">
+        <v>1.337529784286744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.905985059303504</v>
+        <v>1.767306551028753</v>
       </c>
       <c r="C22">
-        <v>0.2035099109046783</v>
+        <v>0.1979259611819728</v>
       </c>
       <c r="D22">
-        <v>0.1289290237980083</v>
+        <v>0.1421491791218585</v>
       </c>
       <c r="E22">
-        <v>0.1443238877880866</v>
+        <v>0.1337753605869949</v>
       </c>
       <c r="F22">
-        <v>0.590449342483133</v>
+        <v>0.5119464726284164</v>
       </c>
       <c r="G22">
-        <v>0.437584477567853</v>
+        <v>0.4946360618823462</v>
       </c>
       <c r="H22">
-        <v>0.000598956312927168</v>
+        <v>0.0006308314563294726</v>
       </c>
       <c r="I22">
-        <v>0.001625833746329519</v>
+        <v>0.001971067111993463</v>
       </c>
       <c r="J22">
-        <v>0.3360131781190887</v>
+        <v>0.2261994807289618</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1451065118864747</v>
       </c>
       <c r="M22">
-        <v>1.497347729275504</v>
+        <v>0.1221626820184873</v>
       </c>
       <c r="N22">
-        <v>0.4437247890336948</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.470069026501676</v>
       </c>
       <c r="P22">
-        <v>0.7151306489907796</v>
+        <v>0.4547070670045343</v>
       </c>
       <c r="Q22">
-        <v>1.580089574584008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7219750812313492</v>
+      </c>
+      <c r="S22">
+        <v>1.336287901042425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.83874042509845</v>
+        <v>1.711929313224317</v>
       </c>
       <c r="C23">
-        <v>0.2014628322501224</v>
+        <v>0.1955472835571683</v>
       </c>
       <c r="D23">
-        <v>0.1247521355566761</v>
+        <v>0.1360817288880156</v>
       </c>
       <c r="E23">
-        <v>0.1407049155290068</v>
+        <v>0.1303575588544703</v>
       </c>
       <c r="F23">
-        <v>0.5786735428902787</v>
+        <v>0.509684920661357</v>
       </c>
       <c r="G23">
-        <v>0.4304244823905208</v>
+        <v>0.4555025940019704</v>
       </c>
       <c r="H23">
-        <v>0.0003968447961069099</v>
+        <v>0.0004441593858763859</v>
       </c>
       <c r="I23">
-        <v>0.001345199720323542</v>
+        <v>0.001659185015204123</v>
       </c>
       <c r="J23">
-        <v>0.3342201431384666</v>
+        <v>0.2496280849210777</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1480812431554668</v>
       </c>
       <c r="M23">
-        <v>1.44406511114201</v>
+        <v>0.1208546368785903</v>
       </c>
       <c r="N23">
-        <v>0.428279319699385</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.424758701478027</v>
       </c>
       <c r="P23">
-        <v>0.7253642533836633</v>
+        <v>0.4393902750206138</v>
       </c>
       <c r="Q23">
-        <v>1.561055512231434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7284290168458192</v>
+      </c>
+      <c r="S23">
+        <v>1.345640480497138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.578603470460024</v>
+        <v>1.488187834713585</v>
       </c>
       <c r="C24">
-        <v>0.1941956200126853</v>
+        <v>0.186299700520614</v>
       </c>
       <c r="D24">
-        <v>0.1092976648231243</v>
+        <v>0.1154925316206743</v>
       </c>
       <c r="E24">
-        <v>0.126492536998807</v>
+        <v>0.1173460781136413</v>
       </c>
       <c r="F24">
-        <v>0.5330479725215298</v>
+        <v>0.4900778289502199</v>
       </c>
       <c r="G24">
-        <v>0.4021143665167273</v>
+        <v>0.3568728450664054</v>
       </c>
       <c r="H24">
-        <v>4.732943532648193E-06</v>
+        <v>2.598813353249518E-05</v>
       </c>
       <c r="I24">
-        <v>0.001171894766730297</v>
+        <v>0.001357724230951263</v>
       </c>
       <c r="J24">
-        <v>0.326910978268657</v>
+        <v>0.3249303696447896</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.15753221583768</v>
       </c>
       <c r="M24">
-        <v>1.242475703851682</v>
+        <v>0.113492304522147</v>
       </c>
       <c r="N24">
-        <v>0.3703846324771547</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.242779633519433</v>
       </c>
       <c r="P24">
-        <v>0.7656290013851486</v>
+        <v>0.3812917581230124</v>
       </c>
       <c r="Q24">
-        <v>1.48534111245695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7582297827575815</v>
+      </c>
+      <c r="S24">
+        <v>1.347670855811685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.297428089558707</v>
+        <v>1.230229296380998</v>
       </c>
       <c r="C25">
-        <v>0.1862759565224508</v>
+        <v>0.1740147259148515</v>
       </c>
       <c r="D25">
-        <v>0.09263876349243816</v>
+        <v>0.09680542504189305</v>
       </c>
       <c r="E25">
-        <v>0.1110906474547768</v>
+        <v>0.1038840504223373</v>
       </c>
       <c r="F25">
-        <v>0.4859737955509402</v>
+        <v>0.4519441580070875</v>
       </c>
       <c r="G25">
-        <v>0.3732996929533883</v>
+        <v>0.3292510090077201</v>
       </c>
       <c r="H25">
-        <v>0.0003193596999264692</v>
+        <v>0.0001835524669475674</v>
       </c>
       <c r="I25">
-        <v>0.001821321995027603</v>
+        <v>0.001708595428509874</v>
       </c>
       <c r="J25">
-        <v>0.3201054655496876</v>
+        <v>0.3267206116029584</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1646822778558281</v>
       </c>
       <c r="M25">
-        <v>1.025010562720155</v>
+        <v>0.1033013199427018</v>
       </c>
       <c r="N25">
-        <v>0.3081420898462568</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.027028283248427</v>
       </c>
       <c r="P25">
-        <v>0.8115305756756257</v>
+        <v>0.3175390832992946</v>
       </c>
       <c r="Q25">
-        <v>1.409555240193868</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7973334208197187</v>
+      </c>
+      <c r="S25">
+        <v>1.297625618774845</v>
       </c>
     </row>
   </sheetData>
